--- a/WebTuyenSinhAdmin/wwwroot/Profile/dulieu.xlsx
+++ b/WebTuyenSinhAdmin/wwwroot/Profile/dulieu.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>STT</t>
   </si>
@@ -78,7 +78,7 @@
     <t>TTNV</t>
   </si>
   <si>
-    <t>GSA90</t>
+    <t>GSA7</t>
   </si>
   <si>
     <t xml:space="preserve">231308802   </t>
@@ -87,49 +87,40 @@
     <t>phạm trọng trường</t>
   </si>
   <si>
-    <t>11/20/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> KHU VỰC 1</t>
+    <t>11/8/2021</t>
+  </si>
+  <si>
+    <t>kv1</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>GSA93</t>
-  </si>
-  <si>
-    <t>11/6/2021</t>
-  </si>
-  <si>
-    <t>GSA94</t>
-  </si>
-  <si>
-    <t>GSA92</t>
+    <t>GSA8</t>
+  </si>
+  <si>
+    <t>GSA9</t>
   </si>
   <si>
     <t xml:space="preserve"> KHÔNG CÓ</t>
   </si>
   <si>
+    <t xml:space="preserve">A01      </t>
+  </si>
+  <si>
+    <t>Toan, Lý Anh</t>
+  </si>
+  <si>
+    <t>73401111</t>
+  </si>
+  <si>
     <t xml:space="preserve">A00      </t>
   </si>
   <si>
     <t xml:space="preserve">Toán ,Lý,  Hóa</t>
   </si>
   <si>
-    <t xml:space="preserve">73401111  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">73401110  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D00      </t>
-  </si>
-  <si>
-    <t>D00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73401141  </t>
+    <t>73401110</t>
   </si>
 </sst>
 </file>
@@ -182,8 +173,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U5">
-  <autoFilter ref="A1:U5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U4">
+  <autoFilter ref="A1:U4"/>
   <tableColumns count="21">
     <tableColumn id="1" name="STT"/>
     <tableColumn id="2" name="So_BD"/>
@@ -212,8 +203,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:U5">
-  <autoFilter ref="A1:U5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:U4">
+  <autoFilter ref="A1:U4"/>
   <tableColumns count="21">
     <tableColumn id="1" name="STT"/>
     <tableColumn id="2" name="So_BD"/>
@@ -243,7 +234,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,7 +390,7 @@
         <v>23</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>25</v>
@@ -455,7 +446,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>22</v>
@@ -464,7 +455,7 @@
         <v>23</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>25</v>
@@ -512,71 +503,6 @@
         <v>26</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="S5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="T5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="U5" s="0" t="s">
         <v>26</v>
       </c>
     </row>
@@ -590,16 +516,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
@@ -687,46 +613,46 @@
         <v>25</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="J2" s="0">
+        <v>9</v>
+      </c>
+      <c r="K2" s="0">
+        <v>9</v>
+      </c>
+      <c r="L2" s="0">
+        <v>9</v>
+      </c>
+      <c r="M2" s="0">
+        <v>9</v>
+      </c>
+      <c r="N2" s="0">
+        <v>9</v>
+      </c>
+      <c r="O2" s="0">
+        <v>9</v>
+      </c>
+      <c r="P2" s="0">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="0">
+        <v>9</v>
+      </c>
+      <c r="R2" s="0">
+        <v>9</v>
+      </c>
+      <c r="S2" s="0">
+        <v>27</v>
+      </c>
+      <c r="T2" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="0">
-        <v>1</v>
-      </c>
-      <c r="K2" s="0">
-        <v>1</v>
-      </c>
-      <c r="L2" s="0">
-        <v>1</v>
-      </c>
-      <c r="M2" s="0">
-        <v>1</v>
-      </c>
-      <c r="N2" s="0">
-        <v>1</v>
-      </c>
-      <c r="O2" s="0">
-        <v>1</v>
-      </c>
-      <c r="P2" s="0">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="0">
-        <v>1</v>
-      </c>
-      <c r="R2" s="0">
-        <v>1</v>
-      </c>
-      <c r="S2" s="0">
-        <v>3</v>
-      </c>
-      <c r="T2" s="0" t="s">
-        <v>34</v>
       </c>
       <c r="U2" s="0">
         <v>1</v>
@@ -746,55 +672,55 @@
         <v>23</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" s="0">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K3" s="0">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L3" s="0">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M3" s="0">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N3" s="0">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O3" s="0">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P3" s="0">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q3" s="0">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R3" s="0">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S3" s="0">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="T3" s="0" t="s">
         <v>35</v>
       </c>
       <c r="U3" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -802,7 +728,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>22</v>
@@ -811,120 +737,55 @@
         <v>23</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="J4" s="0">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K4" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L4" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M4" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N4" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O4" s="0">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P4" s="0">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Q4" s="0">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R4" s="0">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S4" s="0">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="U4" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="0">
-        <v>10</v>
-      </c>
-      <c r="K5" s="0">
-        <v>10</v>
-      </c>
-      <c r="L5" s="0">
-        <v>10</v>
-      </c>
-      <c r="M5" s="0">
-        <v>10</v>
-      </c>
-      <c r="N5" s="0">
-        <v>10</v>
-      </c>
-      <c r="O5" s="0">
-        <v>1</v>
-      </c>
-      <c r="P5" s="0">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="0">
-        <v>1</v>
-      </c>
-      <c r="R5" s="0">
-        <v>1</v>
-      </c>
-      <c r="S5" s="0">
-        <v>18</v>
-      </c>
-      <c r="T5" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="U5" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/WebTuyenSinhAdmin/wwwroot/Profile/dulieu.xlsx
+++ b/WebTuyenSinhAdmin/wwwroot/Profile/dulieu.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>STT</t>
   </si>
@@ -78,7 +78,7 @@
     <t>TTNV</t>
   </si>
   <si>
-    <t>GSA7</t>
+    <t>GSA5</t>
   </si>
   <si>
     <t xml:space="preserve">231308802   </t>
@@ -87,40 +87,34 @@
     <t>phạm trọng trường</t>
   </si>
   <si>
-    <t>11/8/2021</t>
-  </si>
-  <si>
-    <t>kv1</t>
+    <t>12/10/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KHU VỰC 1</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>GSA8</t>
-  </si>
-  <si>
-    <t>GSA9</t>
+    <t>GSA6</t>
   </si>
   <si>
     <t xml:space="preserve"> KHÔNG CÓ</t>
   </si>
   <si>
+    <t xml:space="preserve">A00      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toán ,Lý,  Hóa</t>
+  </si>
+  <si>
+    <t>73401110</t>
+  </si>
+  <si>
     <t xml:space="preserve">A01      </t>
   </si>
   <si>
     <t>Toan, Lý Anh</t>
-  </si>
-  <si>
-    <t>73401111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A00      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toán ,Lý,  Hóa</t>
-  </si>
-  <si>
-    <t>73401110</t>
   </si>
 </sst>
 </file>
@@ -173,8 +167,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U4">
-  <autoFilter ref="A1:U4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U3">
+  <autoFilter ref="A1:U3"/>
   <tableColumns count="21">
     <tableColumn id="1" name="STT"/>
     <tableColumn id="2" name="So_BD"/>
@@ -203,8 +197,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:U4">
-  <autoFilter ref="A1:U4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:U3">
+  <autoFilter ref="A1:U3"/>
   <tableColumns count="21">
     <tableColumn id="1" name="STT"/>
     <tableColumn id="2" name="So_BD"/>
@@ -234,7 +228,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -441,71 +435,6 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="S4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="T4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="U4" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
   </sheetData>
   <headerFooter/>
   <tableParts>
@@ -516,7 +445,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -613,46 +542,46 @@
         <v>25</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="J2" s="0">
+        <v>8</v>
+      </c>
+      <c r="K2" s="0">
+        <v>8</v>
+      </c>
+      <c r="L2" s="0">
+        <v>8</v>
+      </c>
+      <c r="M2" s="0">
+        <v>8</v>
+      </c>
+      <c r="N2" s="0">
+        <v>8</v>
+      </c>
+      <c r="O2" s="0">
+        <v>8</v>
+      </c>
+      <c r="P2" s="0">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="0">
+        <v>8</v>
+      </c>
+      <c r="R2" s="0">
+        <v>8</v>
+      </c>
+      <c r="S2" s="0">
+        <v>24</v>
+      </c>
+      <c r="T2" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="J2" s="0">
-        <v>9</v>
-      </c>
-      <c r="K2" s="0">
-        <v>9</v>
-      </c>
-      <c r="L2" s="0">
-        <v>9</v>
-      </c>
-      <c r="M2" s="0">
-        <v>9</v>
-      </c>
-      <c r="N2" s="0">
-        <v>9</v>
-      </c>
-      <c r="O2" s="0">
-        <v>9</v>
-      </c>
-      <c r="P2" s="0">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="0">
-        <v>9</v>
-      </c>
-      <c r="R2" s="0">
-        <v>9</v>
-      </c>
-      <c r="S2" s="0">
-        <v>27</v>
-      </c>
-      <c r="T2" s="0" t="s">
-        <v>32</v>
       </c>
       <c r="U2" s="0">
         <v>1</v>
@@ -678,114 +607,49 @@
         <v>25</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="J3" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K3" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L3" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M3" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N3" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O3" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P3" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q3" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R3" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S3" s="0">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="U3" s="0">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="0">
-        <v>9</v>
-      </c>
-      <c r="K4" s="0">
-        <v>9</v>
-      </c>
-      <c r="L4" s="0">
-        <v>9</v>
-      </c>
-      <c r="M4" s="0">
-        <v>9</v>
-      </c>
-      <c r="N4" s="0">
-        <v>9</v>
-      </c>
-      <c r="O4" s="0">
-        <v>9</v>
-      </c>
-      <c r="P4" s="0">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="0">
-        <v>9</v>
-      </c>
-      <c r="R4" s="0">
-        <v>9</v>
-      </c>
-      <c r="S4" s="0">
-        <v>27</v>
-      </c>
-      <c r="T4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="U4" s="0">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/WebTuyenSinhAdmin/wwwroot/Profile/dulieu.xlsx
+++ b/WebTuyenSinhAdmin/wwwroot/Profile/dulieu.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>STT</t>
   </si>
@@ -36,6 +36,15 @@
     <t>DOI_TUONG</t>
   </si>
   <si>
+    <t>THUTU_NV</t>
+  </si>
+  <si>
+    <t>MA_NGANH</t>
+  </si>
+  <si>
+    <t>TEN_NGANH</t>
+  </si>
+  <si>
     <t>MA_TOHOPMON</t>
   </si>
   <si>
@@ -69,16 +78,7 @@
     <t>L12_Mon3</t>
   </si>
   <si>
-    <t>TongDiem</t>
-  </si>
-  <si>
-    <t>NganhTT</t>
-  </si>
-  <si>
-    <t>TTNV</t>
-  </si>
-  <si>
-    <t>GSA5</t>
+    <t>GSA52</t>
   </si>
   <si>
     <t xml:space="preserve">231308802   </t>
@@ -87,28 +87,22 @@
     <t>phạm trọng trường</t>
   </si>
   <si>
-    <t>12/10/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> KHU VỰC 1</t>
+    <t>2/3/2022</t>
+  </si>
+  <si>
+    <t>KV2</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>GSA6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> KHÔNG CÓ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A00      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toán ,Lý,  Hóa</t>
+    <t xml:space="preserve">1 </t>
   </si>
   <si>
     <t>73401110</t>
+  </si>
+  <si>
+    <t>Công Nghệ Thông Tin</t>
   </si>
   <si>
     <t xml:space="preserve">A01      </t>
@@ -167,8 +161,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U3">
-  <autoFilter ref="A1:U3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U2">
+  <autoFilter ref="A1:U2"/>
   <tableColumns count="21">
     <tableColumn id="1" name="STT"/>
     <tableColumn id="2" name="So_BD"/>
@@ -177,28 +171,28 @@
     <tableColumn id="5" name="NGAY_SINH"/>
     <tableColumn id="6" name="KHU_VUC"/>
     <tableColumn id="7" name="DOI_TUONG"/>
-    <tableColumn id="8" name="MA_TOHOPMON"/>
-    <tableColumn id="9" name="TEN_TOHOPMON"/>
-    <tableColumn id="10" name="L10_Mon1"/>
-    <tableColumn id="11" name="L10_Mon2"/>
-    <tableColumn id="12" name="L10_Mon3"/>
-    <tableColumn id="13" name="L11_Mon1"/>
-    <tableColumn id="14" name="L11_Mon2"/>
-    <tableColumn id="15" name="L11_Mon3"/>
-    <tableColumn id="16" name="L12_Mon1"/>
-    <tableColumn id="17" name="L12_Mon2"/>
-    <tableColumn id="18" name="L12_Mon3"/>
-    <tableColumn id="19" name="TongDiem"/>
-    <tableColumn id="20" name="NganhTT"/>
-    <tableColumn id="21" name="TTNV"/>
+    <tableColumn id="8" name="THUTU_NV"/>
+    <tableColumn id="9" name="MA_NGANH"/>
+    <tableColumn id="10" name="TEN_NGANH"/>
+    <tableColumn id="11" name="MA_TOHOPMON"/>
+    <tableColumn id="12" name="TEN_TOHOPMON"/>
+    <tableColumn id="13" name="L10_Mon1"/>
+    <tableColumn id="14" name="L10_Mon2"/>
+    <tableColumn id="15" name="L10_Mon3"/>
+    <tableColumn id="16" name="L11_Mon1"/>
+    <tableColumn id="17" name="L11_Mon2"/>
+    <tableColumn id="18" name="L11_Mon3"/>
+    <tableColumn id="19" name="L12_Mon1"/>
+    <tableColumn id="20" name="L12_Mon2"/>
+    <tableColumn id="21" name="L12_Mon3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleNone" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:U3">
-  <autoFilter ref="A1:U3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:U2">
+  <autoFilter ref="A1:U2"/>
   <tableColumns count="21">
     <tableColumn id="1" name="STT"/>
     <tableColumn id="2" name="So_BD"/>
@@ -207,20 +201,20 @@
     <tableColumn id="5" name="NGAY_SINH"/>
     <tableColumn id="6" name="KHU_VUC"/>
     <tableColumn id="7" name="DOI_TUONG"/>
-    <tableColumn id="8" name="MA_TOHOPMON"/>
-    <tableColumn id="9" name="TEN_TOHOPMON"/>
-    <tableColumn id="10" name="L10_Mon1"/>
-    <tableColumn id="11" name="L10_Mon2"/>
-    <tableColumn id="12" name="L10_Mon3"/>
-    <tableColumn id="13" name="L11_Mon1"/>
-    <tableColumn id="14" name="L11_Mon2"/>
-    <tableColumn id="15" name="L11_Mon3"/>
-    <tableColumn id="16" name="L12_Mon1"/>
-    <tableColumn id="17" name="L12_Mon2"/>
-    <tableColumn id="18" name="L12_Mon3"/>
-    <tableColumn id="19" name="TongDiem"/>
-    <tableColumn id="20" name="NganhTT"/>
-    <tableColumn id="21" name="TTNV"/>
+    <tableColumn id="8" name="THUTU_NV"/>
+    <tableColumn id="9" name="MA_NGANH"/>
+    <tableColumn id="10" name="TEN_NGANH"/>
+    <tableColumn id="11" name="MA_TOHOPMON"/>
+    <tableColumn id="12" name="TEN_TOHOPMON"/>
+    <tableColumn id="13" name="L10_Mon1"/>
+    <tableColumn id="14" name="L10_Mon2"/>
+    <tableColumn id="15" name="L10_Mon3"/>
+    <tableColumn id="16" name="L11_Mon1"/>
+    <tableColumn id="17" name="L11_Mon2"/>
+    <tableColumn id="18" name="L11_Mon3"/>
+    <tableColumn id="19" name="L12_Mon1"/>
+    <tableColumn id="20" name="L12_Mon2"/>
+    <tableColumn id="21" name="L12_Mon3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleNone" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -228,7 +222,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -370,71 +364,6 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="S3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="T3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="U3" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
   </sheetData>
   <headerFooter/>
   <tableParts>
@@ -445,7 +374,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -542,114 +471,49 @@
         <v>25</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="0">
-        <v>8</v>
-      </c>
-      <c r="K2" s="0">
-        <v>8</v>
-      </c>
-      <c r="L2" s="0">
-        <v>8</v>
+      <c r="L2" s="0" t="s">
+        <v>31</v>
       </c>
       <c r="M2" s="0">
-        <v>8</v>
+        <v>8.12</v>
       </c>
       <c r="N2" s="0">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O2" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P2" s="0">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="Q2" s="0">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R2" s="0">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S2" s="0">
-        <v>24</v>
-      </c>
-      <c r="T2" s="0" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="T2" s="0">
+        <v>1</v>
       </c>
       <c r="U2" s="0">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="0">
-        <v>8</v>
-      </c>
-      <c r="K3" s="0">
-        <v>8</v>
-      </c>
-      <c r="L3" s="0">
-        <v>8</v>
-      </c>
-      <c r="M3" s="0">
-        <v>8</v>
-      </c>
-      <c r="N3" s="0">
-        <v>8</v>
-      </c>
-      <c r="O3" s="0">
-        <v>8</v>
-      </c>
-      <c r="P3" s="0">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="0">
-        <v>8</v>
-      </c>
-      <c r="R3" s="0">
-        <v>8</v>
-      </c>
-      <c r="S3" s="0">
-        <v>24</v>
-      </c>
-      <c r="T3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3" s="0">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/WebTuyenSinhAdmin/wwwroot/Profile/dulieu.xlsx
+++ b/WebTuyenSinhAdmin/wwwroot/Profile/dulieu.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>STT</t>
   </si>
@@ -50,46 +50,58 @@
     <t>DIEM_THI</t>
   </si>
   <si>
-    <t xml:space="preserve">0353573467 </t>
+    <t>23138801</t>
   </si>
   <si>
     <t xml:space="preserve">231308801   </t>
   </si>
   <si>
-    <t>phạm trọng trường</t>
+    <t>pham trong truong</t>
   </si>
   <si>
     <t>Nam</t>
   </si>
   <si>
-    <t>24/04/2022</t>
+    <t>26/06/2022</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>7510605</t>
-  </si>
-  <si>
-    <t>Logistics và Quản lý chuỗi cung ứng</t>
-  </si>
-  <si>
-    <t>7520130</t>
-  </si>
-  <si>
-    <t>Kỹ thuật ô tô</t>
-  </si>
-  <si>
-    <t>7580205</t>
-  </si>
-  <si>
-    <t>Kỹ thuật xây dựng công trình giao thông</t>
-  </si>
-  <si>
-    <t>7580201</t>
-  </si>
-  <si>
-    <t>Kỹ thuật xây dựng</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7340101</t>
+  </si>
+  <si>
+    <t>Quản trị kinh doanh</t>
+  </si>
+  <si>
+    <t>7340301</t>
+  </si>
+  <si>
+    <t>Kế toán</t>
+  </si>
+  <si>
+    <t>7580302</t>
+  </si>
+  <si>
+    <t>Quản lý xây dựng</t>
+  </si>
+  <si>
+    <t>352123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231308802   </t>
+  </si>
+  <si>
+    <t>25/06/2022</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -242,19 +254,19 @@
         <v>17</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="0">
         <v>1</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2" s="0">
-        <v>1000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="3">
@@ -280,19 +292,19 @@
         <v>17</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" s="0">
         <v>2</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L3" s="0">
-        <v>1000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="4">
@@ -318,19 +330,19 @@
         <v>17</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4" s="0">
         <v>3</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L4" s="0">
-        <v>1000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="5">
@@ -338,10 +350,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>14</v>
@@ -350,25 +362,25 @@
         <v>15</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I5" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L5" s="0">
-        <v>1000</v>
+        <v>1200</v>
       </c>
     </row>
   </sheetData>
